--- a/Game/Resource/Table/CostItem.xlsx
+++ b/Game/Resource/Table/CostItem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF291BE-82B2-4FBD-9ED7-6BA1E50A3615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FED976-93F5-4EE1-B1E2-6FE9247539AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,30 +30,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CostType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CostItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ObjType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Consume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttrName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,39 +54,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ObjId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tipis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnifiedAttrType</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UaHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreaterEqual</t>
+  </si>
+  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tipis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态不对</t>
+    <t>TargetId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,22 +451,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -472,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -518,22 +520,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -541,22 +543,68 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>5000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>5001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Table/CostItem.xlsx
+++ b/Game/Resource/Table/CostItem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FED976-93F5-4EE1-B1E2-6FE9247539AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AE32B9-F135-4729-B6C6-940114193DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,18 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttrValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UaType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +89,6 @@
   </si>
   <si>
     <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,46 +414,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="2" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,22 +454,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -508,14 +479,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -523,88 +488,64 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>5000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>5001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
